--- a/procurement_export_abstract.xlsx
+++ b/procurement_export_abstract.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,13 +29,13 @@
     <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>RFQ NO.2022-0004</t>
+    <t>RFQ NO.2022-0008</t>
   </si>
   <si>
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC:Php 50.00</t>
+    <t>ABC:Php 509.30</t>
   </si>
   <si>
     <t>Small Value Procurement</t>
@@ -44,13 +44,21 @@
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t>2022-0005</t>
-  </si>
-  <si>
-    <t>1-Air Master Enterprise, Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessories Technologies Inc. </t>
+    <t>2022-00016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agile Techfrontier Corp.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akinto Marketing Corp.
+</t>
+  </si>
+  <si>
+    <t>Apolega Tire and Service Center</t>
+  </si>
+  <si>
+    <t>Alprops Management  Inc. ( Montevista Hot Spring and Conference Resort)</t>
   </si>
   <si>
     <t xml:space="preserve">Item </t>
@@ -68,22 +76,29 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Laundry Service1</t>
+    <t>Detergent powder
+TEST</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>Vulcanize flat tire
+TEST</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t>Clinical Foot Pedal Bin1</t>
+    <t>Ribbon, Pull Bow (Red)
+TEST</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t>Cabinet1</t>
-  </si>
-  <si>
-    <t>Specialty Paper, A41</t>
+    <t>Admission/Events Wristband, (Orange)
+TEST</t>
   </si>
   <si>
     <t>pack</t>
@@ -92,10 +107,10 @@
     <t>REF</t>
   </si>
   <si>
-    <t>PR No. 2022-03-0007/2022-03-0008                                                                           Date received: March 27, 2022</t>
-  </si>
-  <si>
-    <t>PUR:</t>
+    <t>PR No. 2022-03-0009                                                                           Date received: March 30, 2022</t>
+  </si>
+  <si>
+    <t>PUR:DD</t>
   </si>
   <si>
     <t>ELIGIBILITY REQUIREMENTS</t>
@@ -136,7 +151,7 @@
     <t>REMARKS:</t>
   </si>
   <si>
-    <t>Award is hereby recommended to be given to 1-Air Master Enterprise, Inc. which  has the lowest calculated and responsive bids</t>
+    <t>Award is hereby recommended to be given to Apolega Tire and Service Center which  has the lowest calculated and responsive bids</t>
   </si>
   <si>
     <t>OTHERS:</t>
@@ -284,7 +299,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +328,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB3E5FC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -521,12 +554,6 @@
     <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -548,8 +575,26 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -935,7 +980,7 @@
     <col min="6" max="6" width="20" customWidth="true" style="11"/>
     <col min="7" max="7" width="20" customWidth="true" style="11"/>
     <col min="8" max="8" width="20" customWidth="true" style="11"/>
-    <col min="9" max="9" width="1.88671875" customWidth="true" style="11"/>
+    <col min="9" max="9" width="20" customWidth="true" style="11"/>
     <col min="10" max="10" width="17.33203125" customWidth="true" style="9"/>
     <col min="11" max="11" width="15.6640625" customWidth="true" style="9"/>
     <col min="12" max="12" width="15" customWidth="true" style="9"/>
@@ -1079,31 +1124,35 @@
         <v>9</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="45" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
       <c r="A10" s="24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="46"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="40.2" s="10" customFormat="1">
       <c r="A11" s="23"/>
@@ -1114,102 +1163,123 @@
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:14" s="20" customFormat="1">
+      <c r="I11" s="59"/>
+    </row>
+    <row r="12" spans="1:14" customHeight="1" ht="45" s="20" customFormat="1">
       <c r="A12" s="23">
         <v>1</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="28">
-        <v>179</v>
+        <v>69.3</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F12" s="48">
-        <v>1</v>
-      </c>
-      <c r="G12" s="28">
-        <v>500</v>
-      </c>
-      <c r="H12" s="28">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customHeight="1" ht="14.4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="57">
+        <v>200</v>
+      </c>
+      <c r="H12" s="57">
+        <v>780</v>
+      </c>
+      <c r="I12" s="61">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customHeight="1" ht="45">
       <c r="A13" s="30">
         <v>2</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="47">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="48">
-        <v>1</v>
-      </c>
-      <c r="G13" s="49">
-        <v>200</v>
-      </c>
-      <c r="H13" s="49">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="14.4">
+        <v>21</v>
+      </c>
+      <c r="F13" s="56">
+        <v>500</v>
+      </c>
+      <c r="G13" s="48">
+        <v>300</v>
+      </c>
+      <c r="H13" s="56">
+        <v>780</v>
+      </c>
+      <c r="I13" s="62">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="45">
       <c r="A14" s="33">
         <v>3</v>
       </c>
-      <c r="B14" s="50" t="s">
-        <v>20</v>
+      <c r="B14" s="31" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="47">
-        <v>13000</v>
+        <v>15</v>
       </c>
       <c r="D14" s="30">
         <v>1</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="58">
-        <v>1</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="14.4">
+        <v>23</v>
+      </c>
+      <c r="F14" s="57">
+        <v>700</v>
+      </c>
+      <c r="G14" s="57">
+        <v>800</v>
+      </c>
+      <c r="H14" s="58">
+        <v>150</v>
+      </c>
+      <c r="I14" s="62">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="45">
       <c r="A15" s="33">
         <v>4</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>21</v>
+      <c r="B15" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="47">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="D15" s="30">
         <v>1</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="58">
-        <v>1</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+        <v>25</v>
+      </c>
+      <c r="F15" s="57">
+        <v>300</v>
+      </c>
+      <c r="G15" s="58">
+        <v>200</v>
+      </c>
+      <c r="H15" s="57">
+        <v>540</v>
+      </c>
+      <c r="I15" s="62">
+        <v>1050</v>
+      </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="14.4">
       <c r="A16" s="33"/>
@@ -1220,11 +1290,12 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
+      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="14.4">
       <c r="A17" s="33"/>
-      <c r="B17" s="51" t="s">
-        <v>23</v>
+      <c r="B17" s="49" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="30"/>
@@ -1232,11 +1303,12 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
+      <c r="I17" s="55"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="43">
       <c r="A18" s="33"/>
       <c r="B18" s="31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="47"/>
       <c r="D18" s="30"/>
@@ -1244,11 +1316,12 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
+      <c r="I18" s="55"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="100">
       <c r="A19" s="33"/>
       <c r="B19" s="31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="30"/>
@@ -1256,11 +1329,12 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
+      <c r="I19" s="55"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="14.4">
       <c r="A20" s="33"/>
-      <c r="B20" s="52" t="s">
-        <v>26</v>
+      <c r="B20" s="50" t="s">
+        <v>29</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="30"/>
@@ -1268,6 +1342,7 @@
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
+      <c r="I20" s="55"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="14.4">
       <c r="A21" s="33"/>
@@ -1278,11 +1353,12 @@
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="60">
       <c r="A22" s="33"/>
       <c r="B22" s="31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="30"/>
@@ -1290,29 +1366,31 @@
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
+      <c r="I22" s="55"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="72">
       <c r="A23" s="33"/>
       <c r="B23" s="31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I23" s="55"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="50">
       <c r="A24" s="33"/>
       <c r="B24" s="31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="30"/>
@@ -1320,11 +1398,12 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
+      <c r="I24" s="55"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="30">
       <c r="A25" s="33"/>
       <c r="B25" s="31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="30"/>
@@ -1332,105 +1411,107 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
+      <c r="I25" s="55"/>
     </row>
     <row r="26" spans="1:14" customHeight="1" ht="60">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56" t="s">
-        <v>32</v>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="F26" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:14" customHeight="1" ht="40">
-      <c r="B27" s="53" t="s">
-        <v>33</v>
+      <c r="B27" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="53" t="s">
-        <v>34</v>
+      <c r="B28" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="54" t="s">
-        <v>36</v>
+      <c r="B30" s="52" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="B33" s="54" t="s">
-        <v>38</v>
+      <c r="B33" s="52" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="B35" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H35" s="59" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="H35" s="63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="B36" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="C37" s="35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="C38" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="B40" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" s="59" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="H40" s="63" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="B41" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1446,6 +1527,7 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
   </mergeCells>

--- a/procurement_export_abstract.xlsx
+++ b/procurement_export_abstract.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,13 +29,13 @@
     <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>RFQ NO.2022-0008</t>
+    <t>RFQ NO.2022-001</t>
   </si>
   <si>
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC:Php 509.30</t>
+    <t>ABC:Php 13,550.00</t>
   </si>
   <si>
     <t>Small Value Procurement</t>
@@ -44,23 +44,20 @@
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t>2022-00016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agile Techfrontier Corp.
+    <t>2022-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A T Santos Inc.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Akinto Marketing Corp.
+    <t>Alghen Trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMD Computer Sales and Services
 </t>
   </si>
   <si>
-    <t>Apolega Tire and Service Center</t>
-  </si>
-  <si>
-    <t>Alprops Management  Inc. ( Montevista Hot Spring and Conference Resort)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Item </t>
   </si>
   <si>
@@ -76,41 +73,26 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Detergent powder
-TEST</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>Vulcanize flat tire
-TEST</t>
+    <t>Cabinet
+dd</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>Buffing magstest</t>
   </si>
   <si>
     <t>lot</t>
   </si>
   <si>
-    <t>Ribbon, Pull Bow (Red)
-TEST</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>Admission/Events Wristband, (Orange)
-TEST</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
     <t>REF</t>
   </si>
   <si>
-    <t>PR No. 2022-03-0009                                                                           Date received: March 30, 2022</t>
-  </si>
-  <si>
-    <t>PUR:DD</t>
+    <t>PR No. 2022-06-003                                                                           Date received: January 01, 1970</t>
+  </si>
+  <si>
+    <t>PUR:</t>
   </si>
   <si>
     <t>ELIGIBILITY REQUIREMENTS</t>
@@ -151,7 +133,8 @@
     <t>REMARKS:</t>
   </si>
   <si>
-    <t>Award is hereby recommended to be given to Apolega Tire and Service Center which  has the lowest calculated and responsive bids</t>
+    <t>Award is hereby recommended to be given to A T Santos Inc.
+ which  has the lowest calculated and responsive bids</t>
   </si>
   <si>
     <t>OTHERS:</t>
@@ -175,7 +158,7 @@
     <t>BAC Vice Chairman</t>
   </si>
   <si>
-    <t>GILBERT L. TUMAMAC</t>
+    <t>GILBERTO L. TUMAMAC</t>
   </si>
   <si>
     <t>JAY-AR T. BELTRAN</t>
@@ -299,7 +282,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,18 +317,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFF"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -406,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="58">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -561,40 +532,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="6" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -964,10 +917,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -980,7 +933,7 @@
     <col min="6" max="6" width="20" customWidth="true" style="11"/>
     <col min="7" max="7" width="20" customWidth="true" style="11"/>
     <col min="8" max="8" width="20" customWidth="true" style="11"/>
-    <col min="9" max="9" width="20" customWidth="true" style="11"/>
+    <col min="9" max="9" width="1.88671875" customWidth="true" style="11"/>
     <col min="10" max="10" width="17.33203125" customWidth="true" style="9"/>
     <col min="11" max="11" width="15.6640625" customWidth="true" style="9"/>
     <col min="12" max="12" width="15" customWidth="true" style="9"/>
@@ -1129,30 +1082,26 @@
       <c r="H9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="60" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
       <c r="A10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="46"/>
-      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="40.2" s="10" customFormat="1">
       <c r="A11" s="23"/>
@@ -1163,139 +1112,105 @@
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="45" s="20" customFormat="1">
       <c r="A12" s="23">
         <v>1</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="28">
-        <v>69.3</v>
+        <v>13000</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F12" s="48">
         <v>100</v>
       </c>
-      <c r="G12" s="57">
-        <v>200</v>
-      </c>
-      <c r="H12" s="57">
-        <v>780</v>
-      </c>
-      <c r="I12" s="61">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customHeight="1" ht="45">
+      <c r="G12" s="55">
+        <v>400</v>
+      </c>
+      <c r="H12" s="55">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" customHeight="1" ht="14.4">
       <c r="A13" s="30">
         <v>2</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="47">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="D13" s="29">
         <v>1</v>
       </c>
       <c r="E13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="48">
+        <v>200</v>
+      </c>
+      <c r="G13" s="56">
+        <v>500</v>
+      </c>
+      <c r="H13" s="56">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="14.4">
+      <c r="A14" s="33"/>
+      <c r="B14" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="56">
-        <v>500</v>
-      </c>
-      <c r="G13" s="48">
+      <c r="C14" s="47"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="54">
         <v>300</v>
       </c>
-      <c r="H13" s="56">
-        <v>780</v>
-      </c>
-      <c r="I13" s="62">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="45">
-      <c r="A14" s="33">
-        <v>3</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="G14" s="55">
+        <v>600</v>
+      </c>
+      <c r="H14" s="55">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="43">
+      <c r="A15" s="33"/>
+      <c r="B15" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="47">
-        <v>15</v>
-      </c>
-      <c r="D14" s="30">
-        <v>1</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="100">
+      <c r="A16" s="33"/>
+      <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="57">
-        <v>700</v>
-      </c>
-      <c r="G14" s="57">
-        <v>800</v>
-      </c>
-      <c r="H14" s="58">
-        <v>150</v>
-      </c>
-      <c r="I14" s="62">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="45">
-      <c r="A15" s="33">
-        <v>4</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="47">
-        <v>175</v>
-      </c>
-      <c r="D15" s="30">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="57">
-        <v>300</v>
-      </c>
-      <c r="G15" s="58">
-        <v>200</v>
-      </c>
-      <c r="H15" s="57">
-        <v>540</v>
-      </c>
-      <c r="I15" s="62">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="14.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="30"/>
       <c r="C16" s="47"/>
       <c r="D16" s="30"/>
       <c r="E16" s="30"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="55"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="14.4">
       <c r="A17" s="33"/>
-      <c r="B17" s="49" t="s">
-        <v>26</v>
+      <c r="B17" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="30"/>
@@ -1303,25 +1218,21 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="55"/>
-    </row>
-    <row r="18" spans="1:14" customHeight="1" ht="43">
+    </row>
+    <row r="18" spans="1:14" customHeight="1" ht="14.4">
       <c r="A18" s="33"/>
-      <c r="B18" s="31" t="s">
-        <v>27</v>
-      </c>
+      <c r="B18" s="30"/>
       <c r="C18" s="47"/>
       <c r="D18" s="30"/>
       <c r="E18" s="30"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="100">
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="60">
       <c r="A19" s="33"/>
       <c r="B19" s="31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="30"/>
@@ -1329,36 +1240,41 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:14" customHeight="1" ht="14.4">
+    </row>
+    <row r="20" spans="1:14" customHeight="1" ht="72">
       <c r="A20" s="33"/>
-      <c r="B20" s="50" t="s">
-        <v>29</v>
+      <c r="B20" s="31" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:14" customHeight="1" ht="14.4">
+      <c r="F20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" customHeight="1" ht="50">
       <c r="A21" s="33"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="31" t="s">
+        <v>28</v>
+      </c>
       <c r="C21" s="47"/>
       <c r="D21" s="30"/>
       <c r="E21" s="30"/>
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="1:14" customHeight="1" ht="60">
+    </row>
+    <row r="22" spans="1:14" customHeight="1" ht="30">
       <c r="A22" s="33"/>
       <c r="B22" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="30"/>
@@ -1366,152 +1282,126 @@
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="1:14" customHeight="1" ht="72">
+    </row>
+    <row r="23" spans="1:14" customHeight="1" ht="60">
       <c r="A23" s="33"/>
       <c r="B23" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" spans="1:14" customHeight="1" ht="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" customHeight="1" ht="40">
       <c r="A24" s="33"/>
       <c r="B24" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="55"/>
-    </row>
-    <row r="25" spans="1:14" customHeight="1" ht="30">
+      <c r="F24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" customHeight="1" ht="14.4">
       <c r="A25" s="33"/>
       <c r="B25" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="55"/>
-    </row>
-    <row r="26" spans="1:14" customHeight="1" ht="60">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54" t="s">
-        <v>35</v>
-      </c>
+      <c r="F25" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="1:14" customHeight="1" ht="40">
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="B27" s="51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="B28" s="51" t="s">
+    </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="H32" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="B30" s="52" t="s">
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="B31" s="1" t="s">
+      <c r="H33" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="B33" s="52" t="s">
+    <row r="34" spans="1:14">
+      <c r="C34" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="B35" s="35" t="s">
+      <c r="C35" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="63" t="s">
+    </row>
+    <row r="37" spans="1:14">
+      <c r="B37" s="35" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="B36" s="9" t="s">
+      <c r="H37" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="C37" s="35" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="C38" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="B40" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="B41" s="9" t="s">
-        <v>45</v>
+      <c r="B38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1527,9 +1417,8 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.12" bottom="0.12" header="0.12" footer="0.12"/>

--- a/procurement_export_abstract.xlsx
+++ b/procurement_export_abstract.xlsx
@@ -35,7 +35,7 @@
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC:Php 13,550.00</t>
+    <t>ABC:Php 1,650.00</t>
   </si>
   <si>
     <t>Small Value Procurement</t>
@@ -44,20 +44,19 @@
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t>2022-001</t>
+    <t>2022-0013</t>
+  </si>
+  <si>
+    <t>16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t>ABF INTEGRATED FARMS AND AGRIBUSINESS CENTER INC.</t>
   </si>
   <si>
     <t xml:space="preserve">A T Santos Inc.
 </t>
   </si>
   <si>
-    <t>Alghen Trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMD Computer Sales and Services
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Item </t>
   </si>
   <si>
@@ -73,11 +72,11 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Cabinet
-dd</t>
-  </si>
-  <si>
-    <t>piece</t>
+    <t>Meals (AM Snacks, Lunch, PM Snacks)
+d</t>
+  </si>
+  <si>
+    <t>pax</t>
   </si>
   <si>
     <t>Buffing magstest</t>
@@ -89,7 +88,7 @@
     <t>REF</t>
   </si>
   <si>
-    <t>PR No. 2022-06-003                                                                           Date received: January 01, 1970</t>
+    <t>PR No. 2022-06-002                                                                           Date received: January 01, 1970</t>
   </si>
   <si>
     <t>PUR:</t>
@@ -540,14 +539,14 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1121,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="28">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="D12" s="23">
         <v>1</v>
@@ -1129,14 +1128,14 @@
       <c r="E12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="54">
         <v>100</v>
       </c>
       <c r="G12" s="55">
-        <v>400</v>
-      </c>
-      <c r="H12" s="55">
-        <v>700</v>
+        <v>350</v>
+      </c>
+      <c r="H12" s="56">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="14.4">
@@ -1156,13 +1155,13 @@
         <v>20</v>
       </c>
       <c r="F13" s="48">
-        <v>200</v>
-      </c>
-      <c r="G13" s="56">
-        <v>500</v>
-      </c>
-      <c r="H13" s="56">
-        <v>800</v>
+        <v>300</v>
+      </c>
+      <c r="G13" s="54">
+        <v>300</v>
+      </c>
+      <c r="H13" s="48">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="14.4">
@@ -1173,14 +1172,12 @@
       <c r="C14" s="47"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="54">
-        <v>300</v>
-      </c>
+      <c r="F14" s="28"/>
       <c r="G14" s="55">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H14" s="55">
-        <v>900</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="43">
@@ -1193,7 +1190,9 @@
       <c r="E15" s="30"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="H15" s="55">
+        <v>890</v>
+      </c>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="100">
       <c r="A16" s="33"/>

--- a/procurement_export_abstract.xlsx
+++ b/procurement_export_abstract.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,13 +29,13 @@
     <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>RFQ NO.2022-001</t>
+    <t>RFQ NO.2022-005</t>
   </si>
   <si>
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC:Php 1,650.00</t>
+    <t>ABC:Php 0.00</t>
   </si>
   <si>
     <t>Small Value Procurement</t>
@@ -44,19 +44,26 @@
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t>2022-0013</t>
-  </si>
-  <si>
-    <t>16/35 MM Production Supply</t>
-  </si>
-  <si>
-    <t>ABF INTEGRATED FARMS AND AGRIBUSINESS CENTER INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A T Santos Inc.
+    <t>2022-0033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhujar Mfg. Inc. </t>
+  </si>
+  <si>
+    <t>168 Paragon International General Contractror   Equipment</t>
+  </si>
+  <si>
+    <t>ACCENT MICRO TECHNOLOGIES, INC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apo Production Unit. Inc.
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Rufos Famous Restaurant Systems, Inc./Rufos Famous Tapa
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Item </t>
   </si>
   <si>
@@ -72,23 +79,20 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Meals (AM Snacks, Lunch, PM Snacks)
-d</t>
-  </si>
-  <si>
-    <t>pax</t>
+    <t>100GB shared Hosting
+hh</t>
+  </si>
+  <si>
+    <t>lot</t>
   </si>
   <si>
     <t>Buffing magstest</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
     <t>REF</t>
   </si>
   <si>
-    <t>PR No. 2022-06-002                                                                           Date received: January 01, 1970</t>
+    <t>PR No. 2022-06-0025                                                                           Date received: January 01, 1970</t>
   </si>
   <si>
     <t>PUR:</t>
@@ -132,8 +136,7 @@
     <t>REMARKS:</t>
   </si>
   <si>
-    <t>Award is hereby recommended to be given to A T Santos Inc.
- which  has the lowest calculated and responsive bids</t>
+    <t>Award is hereby recommended to be given to  which  has the lowest calculated and responsive bids</t>
   </si>
   <si>
     <t>OTHERS:</t>
@@ -281,7 +284,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +319,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -376,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -524,6 +539,9 @@
     <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -539,14 +557,17 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -932,8 +953,8 @@
     <col min="6" max="6" width="20" customWidth="true" style="11"/>
     <col min="7" max="7" width="20" customWidth="true" style="11"/>
     <col min="8" max="8" width="20" customWidth="true" style="11"/>
-    <col min="9" max="9" width="1.88671875" customWidth="true" style="11"/>
-    <col min="10" max="10" width="17.33203125" customWidth="true" style="9"/>
+    <col min="9" max="9" width="20" customWidth="true" style="11"/>
+    <col min="10" max="10" width="20" customWidth="true" style="9"/>
     <col min="11" max="11" width="15.6640625" customWidth="true" style="9"/>
     <col min="12" max="12" width="15" customWidth="true" style="9"/>
     <col min="13" max="13" width="15.6640625" customWidth="true" style="9"/>
@@ -1081,26 +1102,34 @@
       <c r="H9" s="45" t="s">
         <v>11</v>
       </c>
+      <c r="I9" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
       <c r="A10" s="24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="46"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:14" customHeight="1" ht="40.2" s="10" customFormat="1">
       <c r="A11" s="23"/>
@@ -1111,31 +1140,39 @@
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="46"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="45" s="20" customFormat="1">
       <c r="A12" s="23">
         <v>1</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" s="28">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="D12" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="54">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="F12" s="48">
+        <v>14500</v>
       </c>
       <c r="G12" s="55">
-        <v>350</v>
-      </c>
-      <c r="H12" s="56">
-        <v>50</v>
+        <v>15000</v>
+      </c>
+      <c r="H12" s="55">
+        <v>25000</v>
+      </c>
+      <c r="I12" s="58">
+        <v>18000</v>
+      </c>
+      <c r="J12" s="58">
+        <v>22000</v>
       </c>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="14.4">
@@ -1143,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" s="47">
         <v>100</v>
@@ -1155,49 +1192,49 @@
         <v>20</v>
       </c>
       <c r="F13" s="48">
-        <v>300</v>
-      </c>
-      <c r="G13" s="54">
-        <v>300</v>
-      </c>
-      <c r="H13" s="48">
-        <v>10</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G13" s="49">
+        <v>200</v>
+      </c>
+      <c r="H13" s="49">
+        <v>345</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:14" customHeight="1" ht="14.4">
       <c r="A14" s="33"/>
-      <c r="B14" s="49" t="s">
-        <v>21</v>
+      <c r="B14" s="50" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="55">
-        <v>400</v>
-      </c>
-      <c r="H14" s="55">
-        <v>350</v>
-      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:14" customHeight="1" ht="43">
       <c r="A15" s="33"/>
       <c r="B15" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="55">
-        <v>890</v>
-      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:14" customHeight="1" ht="100">
       <c r="A16" s="33"/>
       <c r="B16" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="30"/>
@@ -1205,11 +1242,13 @@
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:14" customHeight="1" ht="14.4">
       <c r="A17" s="33"/>
-      <c r="B17" s="50" t="s">
-        <v>24</v>
+      <c r="B17" s="51" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="47"/>
       <c r="D17" s="30"/>
@@ -1217,6 +1256,8 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:14" customHeight="1" ht="14.4">
       <c r="A18" s="33"/>
@@ -1227,11 +1268,13 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:14" customHeight="1" ht="60">
       <c r="A19" s="33"/>
       <c r="B19" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="30"/>
@@ -1239,29 +1282,33 @@
       <c r="F19" s="28"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:14" customHeight="1" ht="72">
       <c r="A20" s="33"/>
       <c r="B20" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:14" customHeight="1" ht="50">
       <c r="A21" s="33"/>
       <c r="B21" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="47"/>
       <c r="D21" s="30"/>
@@ -1269,11 +1316,13 @@
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:14" customHeight="1" ht="30">
       <c r="A22" s="33"/>
       <c r="B22" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="47"/>
       <c r="D22" s="30"/>
@@ -1281,126 +1330,136 @@
       <c r="F22" s="28"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:14" customHeight="1" ht="60">
       <c r="A23" s="33"/>
       <c r="B23" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="30"/>
       <c r="E23" s="30"/>
       <c r="F23" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:14" customHeight="1" ht="40">
       <c r="A24" s="33"/>
       <c r="B24" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="30"/>
       <c r="E24" s="30"/>
       <c r="F24" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H24" s="28" t="s">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:14" customHeight="1" ht="14.4">
       <c r="A25" s="33"/>
       <c r="B25" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
       <c r="F25" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="B27" s="51" t="s">
-        <v>34</v>
+      <c r="B27" s="52" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="51" t="s">
-        <v>36</v>
+      <c r="B30" s="52" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="B32" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" s="57" t="s">
         <v>38</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="B33" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="C34" s="35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="C35" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="B37" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="57" t="s">
         <v>44</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="B38" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1416,6 +1475,8 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:M5"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="C35:F35"/>
   </mergeCells>

--- a/procurement_export_abstract.xlsx
+++ b/procurement_export_abstract.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Abstract of Quotations'!$9:$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$I$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,82 +29,128 @@
     <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>RFQ NO.2022-005</t>
+    <t>RFQ NO.2022-0006</t>
   </si>
   <si>
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC:Php 0.00</t>
-  </si>
-  <si>
-    <t>Small Value Procurement</t>
+    <t>ABC:Php 90,000.00</t>
+  </si>
+  <si>
+    <t>Agency to Agency</t>
   </si>
   <si>
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t>2022-0033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhujar Mfg. Inc. </t>
-  </si>
-  <si>
-    <t>168 Paragon International General Contractror   Equipment</t>
-  </si>
-  <si>
-    <t>ACCENT MICRO TECHNOLOGIES, INC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apo Production Unit. Inc.
+    <t>2022-00322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item </t>
+  </si>
+  <si>
+    <t>Item/Description</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t>AJDV Enterprise</t>
+  </si>
+  <si>
+    <t>100GB shared Hosting
+Disk Usage: Unlimited
+MySQL Disk Usage: Unlimited
+PostgreSQL Disk Usage: Unlimited
+MySQL Databases: 2
+PostgreSQL Databases: 2
+Bandwidth: Unlimited
+I/O Usage: 2MB
+CPU Usage: 100
+Add-on Sub Domain: 25
+Entry Processes: 20
+IOPS: 1,024
+Backup Usage: 10GB
+Number of Processes: 100
+FTP Account: 1,000
+E-mail Accounts: Unlimited
+Control Panel: cPanel11</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlimited Enterprise Hosting
+Disk Usage: Unlimited
+CPU: 4vCPU
+RAM: 8GB vMemory
+Disk Usage: 100GB SSD
+MySQL Disk Usage: Unlimited
+PostgreSQL Disk Usage: Unlimited
+MySQL Databases: 2
+PostgreSQL Databases: 2
+Bandwidth: Unlimited
+I/O Usage: 2MB
+CPU Usage: 100
+Add-on Sub Domain: 25
+Entry Processes: 20
+IOPS: 1,024
+Backup Usage: 10GB
+Number of Processes: 100
+FTP Account: 1,000
+E-mail Accounts: Unlimited
+Control Panel: cPanel11
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Rufos Famous Restaurant Systems, Inc./Rufos Famous Tapa
+    <t>100GB shared Hosting
+CPU: 4vCPU
+RAM: 8GB vMemory
+Disk Usage: 100GB SSD
+MySQL Disk Usage: Unlimited
+PostgreSQL Disk Usage: Unlimited
+MySQL Databases: 2
+PostgreSQL Databases: 2
+Bandwidth: Unlimited
+I/O Usage: 2MB
+CPU Usage: 100
+Add-on Sub Domain: 25
+Entry Processes: 20
+IOPS: 1,024
+Backup Usage: 10GB
+Number of Processes: 100
+FTP Account: 1,000
+E-mail Accounts: Unlimited
+Control Panel: cPanel11</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>PR No. 2022-02-00012                                                                           Date received: February 04, 2022</t>
+  </si>
+  <si>
+    <t>PUR:Web Hosting</t>
+  </si>
+  <si>
+    <t>ELIGIBILITY REQUIREMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation/proposal the following eligibility requirements.
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Item </t>
-  </si>
-  <si>
-    <t>Item/Description</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>Qty.</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>100GB shared Hosting
-hh</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>Buffing magstest</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>PR No. 2022-06-0025                                                                           Date received: January 01, 1970</t>
-  </si>
-  <si>
-    <t>PUR:</t>
-  </si>
-  <si>
-    <t>ELIGIBILITY REQUIREMENTS</t>
-  </si>
-  <si>
-    <t>*In order to be eligible for this procurement, suppliers/service providers must submit together with the quotation/proposal the following eligibility requirements.</t>
-  </si>
-  <si>
-    <t>1. Valid Business Permit 2021/ Expired Business or Mayor's permit with Official Receipt of renewal application, subject to submission of Mayor's Permit after award of Contract but before pay</t>
+    <t>1. Valid Business Permit 2022/ Expired Business or Mayor's permit with Official Receipt of renewal application, subject to submission of Mayor's Permit after award of Contract but before pay</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -130,13 +176,13 @@
 </t>
   </si>
   <si>
-    <t>Not Required</t>
+    <t>NOT REQUIRED</t>
   </si>
   <si>
     <t>REMARKS:</t>
   </si>
   <si>
-    <t>Award is hereby recommended to be given to  which  has the lowest calculated and responsive bids</t>
+    <t>Award is hereby recommended to be given to &lt;b&gt;16/35 MM Production Supply &lt;/b&gt;which  has the lowest calculated and responsive bids</t>
   </si>
   <si>
     <t>OTHERS:</t>
@@ -171,8 +217,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="\₱#,##0.00_-"/>
+    <numFmt numFmtId="164" formatCode="\₱#,##0.00_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -284,7 +330,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,18 +365,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFF"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -391,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -464,110 +498,98 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="11" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="7" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="8" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -937,40 +959,40 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="true" style="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="true" style="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="true" style="9"/>
+    <col min="1" max="1" width="5.5703125" customWidth="true" style="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="true" style="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="true" style="9"/>
     <col min="4" max="4" width="6" customWidth="true" style="9"/>
-    <col min="5" max="5" width="5.88671875" customWidth="true" style="9"/>
+    <col min="5" max="5" width="5.85546875" customWidth="true" style="9"/>
     <col min="6" max="6" width="20" customWidth="true" style="11"/>
     <col min="7" max="7" width="20" customWidth="true" style="11"/>
     <col min="8" max="8" width="20" customWidth="true" style="11"/>
-    <col min="9" max="9" width="20" customWidth="true" style="11"/>
-    <col min="10" max="10" width="20" customWidth="true" style="9"/>
-    <col min="11" max="11" width="15.6640625" customWidth="true" style="9"/>
+    <col min="9" max="9" width="1.85546875" customWidth="true" style="11"/>
+    <col min="10" max="10" width="17.28515625" customWidth="true" style="9"/>
+    <col min="11" max="11" width="15.7109375" customWidth="true" style="9"/>
     <col min="12" max="12" width="15" customWidth="true" style="9"/>
-    <col min="13" max="13" width="15.6640625" customWidth="true" style="9"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="true" style="9"/>
+    <col min="14" max="14" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="43">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -978,15 +1000,15 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="15">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -994,15 +1016,15 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1025,18 +1047,18 @@
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="11.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="18.75">
       <c r="A6" s="4"/>
@@ -1047,10 +1069,10 @@
       <c r="D6" s="2"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="37"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="17"/>
       <c r="J6" s="13"/>
     </row>
@@ -1063,21 +1085,21 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="44"/>
       <c r="I7" s="18"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="15">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="7"/>
       <c r="G8" s="21" t="s">
         <v>8</v>
@@ -1088,383 +1110,385 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="43" t="s">
+      <c r="A9" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="C9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="D9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="E9" s="50" t="s">
         <v>13</v>
       </c>
+      <c r="F9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="A10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="1:14" customHeight="1" ht="40.2" s="10" customFormat="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:14" customHeight="1" ht="40.15" s="10" customFormat="1">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="45" s="20" customFormat="1">
       <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="24">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="31">
+        <v>100</v>
+      </c>
+      <c r="G12" s="53">
+        <v>150</v>
+      </c>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:14" customHeight="1" ht="45">
+      <c r="A13" s="26">
+        <v>2</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="30">
+        <v>30000</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="31">
+        <v>200</v>
+      </c>
+      <c r="G13" s="54">
+        <v>250</v>
+      </c>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="45">
+      <c r="A14" s="29">
+        <v>3</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28">
-        <v>20000</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="C14" s="30">
+        <v>40000</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="52">
+        <v>300</v>
+      </c>
+      <c r="G14" s="53">
+        <v>360</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="14.45">
+      <c r="A15" s="29"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="14.45">
+      <c r="A16" s="29"/>
+      <c r="B16" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="48">
-        <v>14500</v>
-      </c>
-      <c r="G12" s="55">
-        <v>15000</v>
-      </c>
-      <c r="H12" s="55">
-        <v>25000</v>
-      </c>
-      <c r="I12" s="58">
-        <v>18000</v>
-      </c>
-      <c r="J12" s="58">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" customHeight="1" ht="14.4">
-      <c r="A13" s="30">
-        <v>2</v>
-      </c>
-      <c r="B13" s="31" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" customHeight="1" ht="43">
+      <c r="A17" s="29"/>
+      <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="47">
-        <v>100</v>
-      </c>
-      <c r="D13" s="29">
-        <v>1</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="48">
-        <v>200</v>
-      </c>
-      <c r="G13" s="49">
-        <v>200</v>
-      </c>
-      <c r="H13" s="49">
-        <v>345</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="14.4">
-      <c r="A14" s="33"/>
-      <c r="B14" s="50" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" customHeight="1" ht="100">
+      <c r="A18" s="29"/>
+      <c r="B18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="43">
-      <c r="A15" s="33"/>
-      <c r="B15" s="31" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="14.45">
+      <c r="A19" s="29"/>
+      <c r="B19" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="100">
-      <c r="A16" s="33"/>
-      <c r="B16" s="31" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="1:14" customHeight="1" ht="14.45">
+      <c r="A20" s="29"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" customHeight="1" ht="60">
+      <c r="A21" s="29"/>
+      <c r="B21" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:14" customHeight="1" ht="14.4">
-      <c r="A17" s="33"/>
-      <c r="B17" s="51" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" customHeight="1" ht="72">
+      <c r="A22" s="29"/>
+      <c r="B22" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:14" customHeight="1" ht="14.4">
-      <c r="A18" s="33"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="60">
-      <c r="A19" s="33"/>
-      <c r="B19" s="31" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:14" customHeight="1" ht="72">
-      <c r="A20" s="33"/>
-      <c r="B20" s="31" t="s">
+      <c r="G22" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" customHeight="1" ht="50">
+      <c r="A23" s="29"/>
+      <c r="B23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="28" t="s">
+      <c r="C23" s="30"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="1:14" customHeight="1" ht="30">
+      <c r="A24" s="29"/>
+      <c r="B24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:14" customHeight="1" ht="50">
-      <c r="A21" s="33"/>
-      <c r="B21" s="31" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="1:14" customHeight="1" ht="60">
+      <c r="A25" s="29"/>
+      <c r="B25" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:14" customHeight="1" ht="30">
-      <c r="A22" s="33"/>
-      <c r="B22" s="31" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" customHeight="1" ht="40">
+      <c r="A26" s="29"/>
+      <c r="B26" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:14" customHeight="1" ht="60">
-      <c r="A23" s="33"/>
-      <c r="B23" s="31" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" customHeight="1" ht="14.45">
+      <c r="A27" s="29"/>
+      <c r="B27" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:14" customHeight="1" ht="40">
-      <c r="A24" s="33"/>
-      <c r="B24" s="31" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:14" customHeight="1" ht="14.4">
-      <c r="A25" s="33"/>
-      <c r="B25" s="31" t="s">
+      <c r="G27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" customHeight="1" ht="14.45">
+      <c r="A28" s="29"/>
+      <c r="B28" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="28" t="s">
+      <c r="C28" s="30"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="B30" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="B27" s="52" t="s">
+    </row>
+    <row r="33" spans="1:14">
+      <c r="B33" s="49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
-      <c r="B28" s="1" t="s">
+    <row r="35" spans="1:14">
+      <c r="B35" s="40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="B30" s="52" t="s">
+      <c r="H35" s="55" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
-      <c r="B32" s="35" t="s">
+    <row r="36" spans="1:14">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="59" t="s">
+      <c r="H36" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
-      <c r="B33" s="9" t="s">
+    <row r="37" spans="1:14">
+      <c r="C37" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="11" t="s">
+    </row>
+    <row r="38" spans="1:14">
+      <c r="C38" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="C34" s="35" t="s">
+    <row r="40" spans="1:14">
+      <c r="B40" s="40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="C35" s="9" t="s">
+      <c r="H40" s="55" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
-      <c r="B37" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="59" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="B38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>41</v>
+    <row r="41" spans="1:14">
+      <c r="B41" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
@@ -1475,10 +1499,9 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.12" bottom="0.12" header="0.12" footer="0.12"/>

--- a/procurement_export_abstract.xlsx
+++ b/procurement_export_abstract.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Abstract of Quotations'!$9:$11</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Abstract of Quotations'!$A$1:$I$25</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Republic of the Philippines</t>
   </si>
@@ -29,22 +29,31 @@
     <t>DILG IV-A CALABARZON, Andenson Bldg1. National Highway, Parian, Calamba City, Laguna</t>
   </si>
   <si>
-    <t>RFQ NO.2022-0006</t>
+    <t>RFQ NO.2023-0002</t>
   </si>
   <si>
     <t>MODE OF PROCUREMENT:</t>
   </si>
   <si>
-    <t>ABC:Php 90,000.00</t>
-  </si>
-  <si>
-    <t>Agency to Agency</t>
+    <t>ABC:Php 3,124.00</t>
+  </si>
+  <si>
+    <t>Small Value Procurement</t>
   </si>
   <si>
     <t>ABSTRACT OF QUOTATION/S</t>
   </si>
   <si>
-    <t>2022-00322</t>
+    <t>2023-0002</t>
+  </si>
+  <si>
+    <t>16/35 MM Production Supply</t>
+  </si>
+  <si>
+    <t>168 Paragon International General Contractror   Equipment</t>
+  </si>
+  <si>
+    <t>347 School Office Supplies, Inc.</t>
   </si>
   <si>
     <t xml:space="preserve">Item </t>
@@ -62,85 +71,27 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>16/35 MM Production Supply</t>
-  </si>
-  <si>
-    <t>AJDV Enterprise</t>
-  </si>
-  <si>
-    <t>100GB shared Hosting
-Disk Usage: Unlimited
-MySQL Disk Usage: Unlimited
-PostgreSQL Disk Usage: Unlimited
-MySQL Databases: 2
-PostgreSQL Databases: 2
-Bandwidth: Unlimited
-I/O Usage: 2MB
-CPU Usage: 100
-Add-on Sub Domain: 25
-Entry Processes: 20
-IOPS: 1,024
-Backup Usage: 10GB
-Number of Processes: 100
-FTP Account: 1,000
-E-mail Accounts: Unlimited
-Control Panel: cPanel11</t>
+    <t>Meals
+2</t>
   </si>
   <si>
     <t>piece</t>
   </si>
   <si>
-    <t xml:space="preserve">Unlimited Enterprise Hosting
-Disk Usage: Unlimited
-CPU: 4vCPU
-RAM: 8GB vMemory
-Disk Usage: 100GB SSD
-MySQL Disk Usage: Unlimited
-PostgreSQL Disk Usage: Unlimited
-MySQL Databases: 2
-PostgreSQL Databases: 2
-Bandwidth: Unlimited
-I/O Usage: 2MB
-CPU Usage: 100
-Add-on Sub Domain: 25
-Entry Processes: 20
-IOPS: 1,024
-Backup Usage: 10GB
-Number of Processes: 100
-FTP Account: 1,000
-E-mail Accounts: Unlimited
-Control Panel: cPanel11
-</t>
-  </si>
-  <si>
-    <t>100GB shared Hosting
-CPU: 4vCPU
-RAM: 8GB vMemory
-Disk Usage: 100GB SSD
-MySQL Disk Usage: Unlimited
-PostgreSQL Disk Usage: Unlimited
-MySQL Databases: 2
-PostgreSQL Databases: 2
-Bandwidth: Unlimited
-I/O Usage: 2MB
-CPU Usage: 100
-Add-on Sub Domain: 25
-Entry Processes: 20
-IOPS: 1,024
-Backup Usage: 10GB
-Number of Processes: 100
-FTP Account: 1,000
-E-mail Accounts: Unlimited
-Control Panel: cPanel11</t>
+    <t>One Year Subscription to Filmora Perpetual
+2</t>
+  </si>
+  <si>
+    <t>lot</t>
   </si>
   <si>
     <t>REF</t>
   </si>
   <si>
-    <t>PR No. 2022-02-00012                                                                           Date received: February 04, 2022</t>
-  </si>
-  <si>
-    <t>PUR:Web Hosting</t>
+    <t>PR No. 2023-01-00014                                                                           Date received: January 26, 2023</t>
+  </si>
+  <si>
+    <t>PUR:dddd</t>
   </si>
   <si>
     <t>ELIGIBILITY REQUIREMENTS</t>
@@ -150,7 +101,7 @@
 </t>
   </si>
   <si>
-    <t>1. Valid Business Permit 2022/ Expired Business or Mayor's permit with Official Receipt of renewal application, subject to submission of Mayor's Permit after award of Contract but before pay</t>
+    <t>1. Valid Business Permit 2023/ Expired Business or Mayor's permit with Official Receipt of renewal application, subject to submission of Mayor's Permit after award of Contract but before pay</t>
   </si>
   <si>
     <t>PASSED</t>
@@ -182,7 +133,7 @@
     <t>REMARKS:</t>
   </si>
   <si>
-    <t>Award is hereby recommended to be given to &lt;b&gt;16/35 MM Production Supply &lt;/b&gt;which  has the lowest calculated and responsive bids</t>
+    <t>Award is hereby recommended to be given to 16/35 MM Production Supply, 347 School Office Supplies, Inc. which  has the lowest calculated and responsive bids</t>
   </si>
   <si>
     <t>OTHERS:</t>
@@ -217,8 +168,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\₱#,##0.00_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="\₱#,##0.00_-"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -425,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -498,7 +449,19 @@
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -516,16 +479,28 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -543,29 +518,11 @@
     <xf xfId="0" fontId="11" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -574,22 +531,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="5" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="165" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="6" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -959,40 +919,40 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="true" style="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="true" style="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="true" style="9"/>
+    <col min="1" max="1" width="5.5546875" customWidth="true" style="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="true" style="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="true" style="9"/>
     <col min="4" max="4" width="6" customWidth="true" style="9"/>
-    <col min="5" max="5" width="5.85546875" customWidth="true" style="9"/>
+    <col min="5" max="5" width="5.88671875" customWidth="true" style="9"/>
     <col min="6" max="6" width="20" customWidth="true" style="11"/>
     <col min="7" max="7" width="20" customWidth="true" style="11"/>
     <col min="8" max="8" width="20" customWidth="true" style="11"/>
-    <col min="9" max="9" width="1.85546875" customWidth="true" style="11"/>
-    <col min="10" max="10" width="17.28515625" customWidth="true" style="9"/>
-    <col min="11" max="11" width="15.7109375" customWidth="true" style="9"/>
+    <col min="9" max="9" width="1.88671875" customWidth="true" style="11"/>
+    <col min="10" max="10" width="17.33203125" customWidth="true" style="9"/>
+    <col min="11" max="11" width="15.6640625" customWidth="true" style="9"/>
     <col min="12" max="12" width="15" customWidth="true" style="9"/>
-    <col min="13" max="13" width="15.7109375" customWidth="true" style="9"/>
-    <col min="14" max="14" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="true" style="9"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" customHeight="1" ht="43">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -1000,15 +960,15 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:14" customHeight="1" ht="15">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
@@ -1016,15 +976,15 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:14" customHeight="1" ht="15">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1047,18 +1007,18 @@
     </row>
     <row r="5" spans="1:14" customHeight="1" ht="11.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="6" spans="1:14" customHeight="1" ht="18.75">
       <c r="A6" s="4"/>
@@ -1069,10 +1029,10 @@
       <c r="D6" s="2"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="41" t="s">
+      <c r="G6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="42"/>
+      <c r="H6" s="37"/>
       <c r="I6" s="17"/>
       <c r="J6" s="13"/>
     </row>
@@ -1085,21 +1045,21 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="18"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:14" customHeight="1" ht="15">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="7"/>
       <c r="G8" s="21" t="s">
         <v>8</v>
@@ -1110,385 +1070,347 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="G9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="H9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="50" t="s">
+    </row>
+    <row r="10" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
+      <c r="A10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="C10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="D10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" customHeight="1" ht="15" s="10" customFormat="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:14" customHeight="1" ht="40.15" s="10" customFormat="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="38"/>
+      <c r="E10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:14" customHeight="1" ht="40.2" s="10" customFormat="1">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:14" customHeight="1" ht="45" s="20" customFormat="1">
       <c r="A12" s="23">
         <v>1</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="24">
-        <v>20000</v>
+      <c r="B12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="28">
+        <v>562</v>
       </c>
       <c r="D12" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="31">
-        <v>100</v>
-      </c>
-      <c r="G12" s="53">
-        <v>150</v>
-      </c>
-      <c r="H12" s="24"/>
+        <v>18</v>
+      </c>
+      <c r="F12" s="48">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="57">
+        <v>1200</v>
+      </c>
+      <c r="H12" s="57">
+        <v>1300</v>
+      </c>
     </row>
     <row r="13" spans="1:14" customHeight="1" ht="45">
-      <c r="A13" s="26">
+      <c r="A13" s="30">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="30">
-        <v>30000</v>
-      </c>
-      <c r="D13" s="25">
-        <v>1</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="31">
-        <v>200</v>
-      </c>
-      <c r="G13" s="54">
-        <v>250</v>
-      </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:14" customHeight="1" ht="45">
-      <c r="A14" s="29">
-        <v>3</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="30">
-        <v>40000</v>
-      </c>
-      <c r="D14" s="26">
-        <v>1</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="52">
-        <v>300</v>
-      </c>
-      <c r="G14" s="53">
-        <v>360</v>
-      </c>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A15" s="29"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A16" s="29"/>
-      <c r="B16" s="47" t="s">
+      <c r="C13" s="47">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="29">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" customHeight="1" ht="43">
-      <c r="A17" s="29"/>
-      <c r="B17" s="27" t="s">
+      <c r="F13" s="56">
+        <v>1900</v>
+      </c>
+      <c r="G13" s="56">
+        <v>1800</v>
+      </c>
+      <c r="H13" s="48">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" customHeight="1" ht="14.4">
+      <c r="A14" s="33"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:14" customHeight="1" ht="14.4">
+      <c r="A15" s="33"/>
+      <c r="B15" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" customHeight="1" ht="100">
-      <c r="A18" s="29"/>
-      <c r="B18" s="27" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" customHeight="1" ht="43">
+      <c r="A16" s="33"/>
+      <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A19" s="29"/>
-      <c r="B19" s="48" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+    </row>
+    <row r="17" spans="1:14" customHeight="1" ht="100">
+      <c r="A17" s="33"/>
+      <c r="B17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A20" s="29"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:14" customHeight="1" ht="60">
-      <c r="A21" s="29"/>
-      <c r="B21" s="27" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+    </row>
+    <row r="18" spans="1:14" customHeight="1" ht="14.4">
+      <c r="A18" s="33"/>
+      <c r="B18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:14" customHeight="1" ht="72">
-      <c r="A22" s="29"/>
-      <c r="B22" s="27" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+    </row>
+    <row r="19" spans="1:14" customHeight="1" ht="14.4">
+      <c r="A19" s="33"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+    </row>
+    <row r="20" spans="1:14" customHeight="1" ht="60">
+      <c r="A20" s="33"/>
+      <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="24" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+    </row>
+    <row r="21" spans="1:14" customHeight="1" ht="72">
+      <c r="A21" s="33"/>
+      <c r="B21" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" customHeight="1" ht="50">
-      <c r="A23" s="29"/>
-      <c r="B23" s="27" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-    </row>
-    <row r="24" spans="1:14" customHeight="1" ht="30">
-      <c r="A24" s="29"/>
-      <c r="B24" s="27" t="s">
+      <c r="G21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" customHeight="1" ht="50">
+      <c r="A22" s="33"/>
+      <c r="B22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="1:14" customHeight="1" ht="60">
-      <c r="A25" s="29"/>
-      <c r="B25" s="27" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:14" customHeight="1" ht="30">
+      <c r="A23" s="33"/>
+      <c r="B23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:14" customHeight="1" ht="40">
-      <c r="A26" s="29"/>
-      <c r="B26" s="27" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:14" customHeight="1" ht="60">
+      <c r="A24" s="33"/>
+      <c r="B24" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A27" s="29"/>
-      <c r="B27" s="27" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" customHeight="1" ht="40">
+      <c r="A25" s="33"/>
+      <c r="B25" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="24" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="53"/>
+      <c r="B26" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" customHeight="1" ht="14.45">
-      <c r="A28" s="29"/>
-      <c r="B28" s="27" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="G26" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="B29" s="52" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="B30" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="B31" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="B33" s="49" t="s">
+      <c r="B30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="32" spans="1:14">
+      <c r="B32" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="B34" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="35" spans="1:14">
-      <c r="B35" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="55" t="s">
-        <v>37</v>
+      <c r="B35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="B36" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>39</v>
+      <c r="C36" s="35" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="B39" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="C38" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="B40" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" s="55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="B41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>39</v>
+      <c r="H40" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
@@ -1499,9 +1421,8 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:M5"/>
-    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="C36:F36"/>
     <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="0.25" top="0.12" bottom="0.12" header="0.12" footer="0.12"/>
